--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1171"/>
+  <dimension ref="A1:I1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42851,6 +42851,43 @@
         </is>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1172"/>
+  <dimension ref="A1:I1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42888,6 +42888,43 @@
         </is>
       </c>
     </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1173"/>
+  <dimension ref="A1:I1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42925,6 +42925,41 @@
         </is>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>36800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1174"/>
+  <dimension ref="A1:I1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42960,6 +42960,43 @@
         <v>36800</v>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1175"/>
+  <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42997,6 +42997,43 @@
         </is>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1176"/>
+  <dimension ref="A1:I1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43034,6 +43034,43 @@
         </is>
       </c>
     </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43071,6 +43071,43 @@
         </is>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43108,6 +43108,41 @@
         </is>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43143,6 +43143,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43178,6 +43178,43 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43215,6 +43215,43 @@
         </is>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43252,6 +43252,41 @@
         </is>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43287,6 +43287,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43322,6 +43322,41 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43357,6 +43357,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43392,6 +43392,43 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43429,6 +43429,43 @@
         </is>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2089"/>
+  <dimension ref="A1:I2090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75001,6 +75001,43 @@
         </is>
       </c>
     </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2090" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2090" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2090"/>
+  <dimension ref="A1:I2091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75038,6 +75038,43 @@
         </is>
       </c>
     </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2091" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2091" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2091"/>
+  <dimension ref="A1:I2092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75075,6 +75075,43 @@
         </is>
       </c>
     </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2092" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2092" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2092"/>
+  <dimension ref="A1:I2093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75112,6 +75112,43 @@
         </is>
       </c>
     </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2093" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2093" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2093"/>
+  <dimension ref="A1:I2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75149,6 +75149,43 @@
         </is>
       </c>
     </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2094" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2094" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2094"/>
+  <dimension ref="A1:I2095"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75186,6 +75186,43 @@
         </is>
       </c>
     </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2095" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2095" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2095"/>
+  <dimension ref="A1:I2096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75223,6 +75223,43 @@
         </is>
       </c>
     </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2096" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2096" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2096"/>
+  <dimension ref="A1:I2097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75260,6 +75260,43 @@
         </is>
       </c>
     </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2097" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2097" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2097"/>
+  <dimension ref="A1:I2098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75297,6 +75297,43 @@
         </is>
       </c>
     </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2098" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2098" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2098"/>
+  <dimension ref="A1:I2099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75334,6 +75334,43 @@
         </is>
       </c>
     </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2099" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2099" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2099"/>
+  <dimension ref="A1:I2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75371,6 +75371,43 @@
         </is>
       </c>
     </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2100" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2100"/>
+  <dimension ref="A1:I2101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75408,6 +75408,43 @@
         </is>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2101" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75445,6 +75445,43 @@
         </is>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2102"/>
+  <dimension ref="A1:I2103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75482,6 +75482,43 @@
         </is>
       </c>
     </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2103" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5082.xlsx
+++ b/data/5082.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2103"/>
+  <dimension ref="A1:I2104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75519,6 +75519,43 @@
         </is>
       </c>
     </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>5082</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>CYMAO</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2104" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
